--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibeng\Desktop\trabajo\fullescabio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fullescabio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BAC9B-AD6F-4B94-8D2B-860F1D85B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5452B6C-A7B9-4B49-9BD6-BD1B70F50107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23136" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2A842995-D530-4971-9EF9-2E6B3D8272C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A842995-D530-4971-9EF9-2E6B3D8272C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>sku</t>
   </si>
@@ -61,16 +50,21 @@
   <si>
     <t>c1</t>
   </si>
-  <si>
-    <t>c100</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -98,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5A4CEF-5B29-453C-AC91-5A1750669B1E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -464,7 +459,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -504,7 +499,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -512,10 +507,434 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fullescabio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{345C5800-ECD6-4F0D-AB5D-B5AA88C4D225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8354F8BD-E446-4CDC-9547-31842780F26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A842995-D530-4971-9EF9-2E6B3D8272C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A842995-D530-4971-9EF9-2E6B3D8272C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,9 +547,6 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -587,9 +584,6 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
       <c r="E8">
         <v>2</v>
       </c>
@@ -626,9 +620,6 @@
       </c>
       <c r="C10">
         <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
